--- a/biology/Botanique/Pittosporum_spinescens/Pittosporum_spinescens.xlsx
+++ b/biology/Botanique/Pittosporum_spinescens/Pittosporum_spinescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pittosporum spinescens est une espèce de plantes de la famille des Pittosporaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pittosporum spinescens atteint une hauteur de 7 mètres et un diamètre à hauteur de poitrine de 30 cm. Elle a de petites feuilles regroupées sur de courtes branches qui se terminent souvent par une pointe effilée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pittosporum spinescens atteint une hauteur de 7 mètres et un diamètre à hauteur de poitrine de 30 cm. Elle a de petites feuilles regroupées sur de courtes branches qui se terminent souvent par une pointe effilée.
 P. spinescens est très semblable en apparence à Pittosporum multiflorum, qui lui est étroitement apparenté, mais se distingue facilement par la totalité de ses bords, ce qui contraste avec les bords des feuilles dentées de cette dernière.
-La plante produit des fruits comestibles de 2 à 3 cm de diamètre[3].
+La plante produit des fruits comestibles de 2 à 3 cm de diamètre.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pittosporum spinescens  se trouve dans les forêts claires et les forêts humides les moins pluvieuses du nord et de l'est de l'Australie et de la Nouvelle-Guinée[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pittosporum spinescens  se trouve dans les forêts claires et les forêts humides les moins pluvieuses du nord et de l'est de l'Australie et de la Nouvelle-Guinée.
 </t>
         </is>
       </c>
